--- a/report.xlsx
+++ b/report.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
@@ -564,20 +564,416 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>10728</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>node.exe</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="A7" s="2" t="n">
+        <v>10728</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>75.4921875</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>19-01-2022 22:12:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>10252</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>35.7734375</v>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:13:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>10728</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>73.78125</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:13:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>10252</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>35.7734375</v>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:14:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>10728</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>76.34375</v>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:14:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10252</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>35.7734375</v>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:15:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>10728</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>73.46875</v>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:15:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>10252</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>35.7734375</v>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:16:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>10728</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>76.3671875</v>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:16:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>10252</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>35.7734375</v>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>10728</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>73.94140625</v>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>10252</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>35.7734375</v>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:18:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>10728</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>76.85546875</v>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:18:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>10252</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>35.7734375</v>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:19:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>10728</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>75.07421875</v>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:19:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>10252</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>35.7734375</v>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:20:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>10728</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>72.828125</v>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:20:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>10252</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>35.7734375</v>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:21:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>10728</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>78.39453125</v>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:21:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>10252</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>35.7734375</v>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:22:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>10728</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>77.21484375</v>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:22:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>10252</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>35.7734375</v>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:23:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10728</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>node.exe</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>73.46875</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19-01-2022 22:23:23</t>
         </is>
       </c>
     </row>
